--- a/services/directory-serve/src/test/resources/usecases/user_cases.xlsx
+++ b/services/directory-serve/src/test/resources/usecases/user_cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="50">
   <si>
     <t>caseName</t>
   </si>
@@ -35,112 +35,148 @@
     <t>caseType</t>
   </si>
   <si>
+    <t>tenantId</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>profile_username</t>
+  </si>
+  <si>
+    <t>profile_avatarUrl</t>
+  </si>
+  <si>
+    <t>profile_bio</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
     <t>expectedResult</t>
   </si>
   <si>
     <t>expectedException</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>tenantId</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
+    <t>status</t>
   </si>
   <si>
     <t>正常创建用户</t>
   </si>
   <si>
-    <t>assertTrue</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>正常创建用户用例</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440000</t>
+    <t>assertNotNull</t>
+  </si>
+  <si>
+    <t>123e4567-e89b-12d3-a456-426614174000</t>
   </si>
   <si>
     <t>test@example.com</t>
   </si>
   <si>
+    <t>password123</t>
+  </si>
+  <si>
     <t>testuser</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>邮箱为空异常</t>
   </si>
   <si>
     <t>assertThrows</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>IllegalArgumentException</t>
   </si>
   <si>
-    <t>邮箱为空时抛出异常</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440001</t>
-  </si>
-  <si>
-    <t>testuser2</t>
-  </si>
-  <si>
     <t>密码为空异常</t>
   </si>
   <si>
-    <t>密码为空时抛出异常</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440002</t>
-  </si>
-  <si>
-    <t>test2@example.com</t>
-  </si>
-  <si>
-    <t>testuser3</t>
-  </si>
-  <si>
     <t>邮箱格式错误</t>
   </si>
   <si>
-    <t>邮箱格式错误时抛出异常</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440003</t>
-  </si>
-  <si>
-    <t>invalid-email</t>
-  </si>
-  <si>
-    <t>testuser4</t>
+    <t>test@bad</t>
   </si>
   <si>
     <t>密码长度不足</t>
   </si>
   <si>
-    <t>密码长度不足时抛出异常</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440004</t>
-  </si>
-  <si>
-    <t>test3@example.com</t>
-  </si>
-  <si>
-    <t>testuser5</t>
+    <t>123</t>
+  </si>
+  <si>
+    <t>正常更新Profile</t>
+  </si>
+  <si>
+    <t>assertDoesNotThrow</t>
+  </si>
+  <si>
+    <t>newuser</t>
+  </si>
+  <si>
+    <t>avatar.png</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>Profile字段为空异常</t>
+  </si>
+  <si>
+    <t>正常修改密码</t>
+  </si>
+  <si>
+    <t>newPassword123</t>
+  </si>
+  <si>
+    <t>assertVoidState</t>
+  </si>
+  <si>
+    <t>正常挂起用户</t>
+  </si>
+  <si>
+    <t>正常激活用户</t>
+  </si>
+  <si>
+    <t>分配分组</t>
+  </si>
+  <si>
+    <t>123e4567-e89b-12d3-a456-426614174001</t>
+  </si>
+  <si>
+    <t>移除分组</t>
+  </si>
+  <si>
+    <t>授予角色</t>
+  </si>
+  <si>
+    <t>123e4567-e89b-12d3-a456-426614174002</t>
+  </si>
+  <si>
+    <t>撤销角色</t>
+  </si>
+  <si>
+    <t>挂起状态下修改密码抛异常</t>
+  </si>
+  <si>
+    <t>IllegalStateException</t>
+  </si>
+  <si>
+    <t>SUSPENDED</t>
   </si>
 </sst>
 </file>
@@ -812,7 +848,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -847,9 +883,12 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="double">
           <color theme="4"/>
         </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -881,9 +920,139 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
-        <horizontal style="thin">
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1004,8 +1173,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{0FF5EFF0-C93C-EF0B-77EF-5B6803E540F0}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1013,6 +1182,18 @@
       <tableStyleElement type="lastColumn" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10" xr9:uid="{4F6E9FFA-7936-D011-77EF-5B688C868406}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
@@ -1285,25 +1466,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="16.1730769230769" customWidth="1"/>
-    <col min="2" max="2" width="13.2980769230769" customWidth="1"/>
-    <col min="3" max="3" width="14.7307692307692" customWidth="1"/>
+    <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="36.0480769230769" customWidth="1"/>
     <col min="4" max="4" width="28.8365384615385" customWidth="1"/>
     <col min="5" max="5" width="27.5576923076923" customWidth="1"/>
     <col min="6" max="6" width="44.5480769230769" customWidth="1"/>
     <col min="7" max="7" width="24.1923076923077" customWidth="1"/>
     <col min="8" max="8" width="15.5384615384615" customWidth="1"/>
+    <col min="14" max="14" width="26.2692307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,143 +1513,822 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>123456</v>
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3">
-        <v>123456</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4" t="s">
-        <v>27</v>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
-        <v>123456</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>123</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
         <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/services/directory-serve/src/test/resources/usecases/user_cases.xlsx
+++ b/services/directory-serve/src/test/resources/usecases/user_cases.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>caseName</t>
   </si>
@@ -35,6 +35,12 @@
     <t>caseType</t>
   </si>
   <si>
+    <t>expectedResult</t>
+  </si>
+  <si>
+    <t>expectedException</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -65,19 +71,16 @@
     <t>roleId</t>
   </si>
   <si>
-    <t>expectedResult</t>
-  </si>
-  <si>
-    <t>expectedException</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>正常创建用户</t>
   </si>
   <si>
-    <t>assertNotNull</t>
+    <t>assertDoesNotThrow</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>123e4567-e89b-12d3-a456-426614174000</t>
@@ -92,7 +95,13 @@
     <t>testuser</t>
   </si>
   <si>
-    <t/>
+    <t>7c54670d-b5e0-4e76-8eab-13df76fe7327</t>
+  </si>
+  <si>
+    <t>04eaa45b-c8cc-4aa3-a8a7-249b69627cec</t>
+  </si>
+  <si>
+    <t>9f2d0f04-d9dc-45a1-91f3-d67edc9faae5</t>
   </si>
   <si>
     <t>邮箱为空异常</t>
@@ -104,25 +113,61 @@
     <t>IllegalArgumentException</t>
   </si>
   <si>
+    <t>8cc66ee4-5ebf-4acc-b47c-408aa0b159fb</t>
+  </si>
+  <si>
+    <t>651127c8-8ce1-4d95-8178-32399e7a4b2e</t>
+  </si>
+  <si>
+    <t>7d9ab409-83b3-4f72-bf70-4915327e4f7c</t>
+  </si>
+  <si>
     <t>密码为空异常</t>
   </si>
   <si>
+    <t>8cbcd066-c348-416d-9c7f-7bd7e2a1033a</t>
+  </si>
+  <si>
+    <t>b4529d8c-bff0-4fd4-bdb4-96103226e176</t>
+  </si>
+  <si>
+    <t>7b43767c-9ec7-4c98-aca6-43782ea157ba</t>
+  </si>
+  <si>
     <t>邮箱格式错误</t>
   </si>
   <si>
     <t>test@bad</t>
   </si>
   <si>
+    <t>1fbead92-735c-4b2c-b7df-0249ca498016</t>
+  </si>
+  <si>
+    <t>f5cb2b23-4098-48be-9c34-97567c1729c1</t>
+  </si>
+  <si>
+    <t>bd520d94-5d4e-408a-b3ba-31f154e0c3cf</t>
+  </si>
+  <si>
     <t>密码长度不足</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
+    <t>7d60ca33-40b5-48af-8e06-25d69fcbad32</t>
+  </si>
+  <si>
+    <t>7372bd29-88d2-4b7a-9dc7-464958448d76</t>
+  </si>
+  <si>
+    <t>243fba3f-cd37-4600-b0b2-11b561c9855a</t>
+  </si>
+  <si>
     <t>正常更新Profile</t>
   </si>
   <si>
-    <t>assertDoesNotThrow</t>
+    <t>assertVoidState</t>
   </si>
   <si>
     <t>newuser</t>
@@ -134,46 +179,127 @@
     <t>bio</t>
   </si>
   <si>
+    <t>11976689-4f6b-4c10-b4a9-635677ab9788</t>
+  </si>
+  <si>
+    <t>53aaf520-b502-4331-abb5-c293ad919564</t>
+  </si>
+  <si>
     <t>Profile字段为空异常</t>
   </si>
   <si>
+    <t>a06410d3-4203-41f4-994c-4340d42d2a87</t>
+  </si>
+  <si>
+    <t>7651e93e-4faf-45bd-9871-e655b91c8ec4</t>
+  </si>
+  <si>
     <t>正常修改密码</t>
   </si>
   <si>
+    <t>bb8acc96-a76d-4c34-b1a8-f53e79e65dbe</t>
+  </si>
+  <si>
     <t>newPassword123</t>
   </si>
   <si>
-    <t>assertVoidState</t>
+    <t>9dc5ee02-fb59-4cc1-8e44-7b723f321d5a</t>
+  </si>
+  <si>
+    <t>e145de3b-30d6-4174-a78e-13780171f4ce</t>
+  </si>
+  <si>
+    <t>1b6b8f60-0152-4499-a7e9-6fbe9a2905c9</t>
+  </si>
+  <si>
+    <t>b35b7daa-83d8-463e-bd3a-68002c030f02</t>
+  </si>
+  <si>
+    <t>cac637e1-ab42-40ca-bb58-6bc711457444</t>
+  </si>
+  <si>
+    <t>4e61eb9e-0bf9-42b8-9f8e-10e0dbef2928</t>
+  </si>
+  <si>
+    <t>ffff9f3f-98af-4f58-bcd8-5ded37151efd</t>
+  </si>
+  <si>
+    <t>2bdf248a-8634-4f29-9d5f-11f4dd4966f1</t>
   </si>
   <si>
     <t>正常挂起用户</t>
   </si>
   <si>
+    <t>4e252da3-2d35-4135-ade5-db042d0e6fe0</t>
+  </si>
+  <si>
+    <t>c633e7f3-a72c-4be8-86ed-4d6a513fcdd4</t>
+  </si>
+  <si>
+    <t>500d1e1c-33ea-49a3-8606-6237f951ca57</t>
+  </si>
+  <si>
     <t>正常激活用户</t>
   </si>
   <si>
+    <t>e24e472f-cb5a-48cc-aae0-fd0e854b18db</t>
+  </si>
+  <si>
+    <t>8e7d1fff-8528-48ca-8535-8ce387752303</t>
+  </si>
+  <si>
+    <t>8d316c7f-f33c-489c-be00-6d225613950e</t>
+  </si>
+  <si>
     <t>分配分组</t>
   </si>
   <si>
+    <t>b5a815c4-749d-472d-973c-cb5816bcc1ae</t>
+  </si>
+  <si>
     <t>123e4567-e89b-12d3-a456-426614174001</t>
   </si>
   <si>
     <t>移除分组</t>
   </si>
   <si>
+    <t>ffb3eb25-133b-4c50-a5c8-3f390e8f6f99</t>
+  </si>
+  <si>
     <t>授予角色</t>
   </si>
   <si>
     <t>123e4567-e89b-12d3-a456-426614174002</t>
   </si>
   <si>
+    <t>004dbe86-aafc-4c86-b263-4aa548807ed0</t>
+  </si>
+  <si>
+    <t>e521ae9d-d8c7-4b79-84b9-e683f41aee8e</t>
+  </si>
+  <si>
     <t>撤销角色</t>
   </si>
   <si>
+    <t>2d05baa7-618d-4f7c-8594-edd0e3dfda87</t>
+  </si>
+  <si>
+    <t>a1d0382c-fc8f-45d6-b781-cfc14751232b</t>
+  </si>
+  <si>
     <t>挂起状态下修改密码抛异常</t>
   </si>
   <si>
     <t>IllegalStateException</t>
+  </si>
+  <si>
+    <t>205e7f08-ad2e-4342-ac62-a1b6eca5bdb7</t>
+  </si>
+  <si>
+    <t>0e53f2b1-9b9f-4de6-8590-750c92c3e974</t>
+  </si>
+  <si>
+    <t>3d161c0d-28ad-4838-9bf8-bda8eedb3070</t>
   </si>
   <si>
     <t>SUSPENDED</t>
@@ -647,155 +773,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1063,6 +1190,9 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
@@ -1079,6 +1209,9 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
@@ -1094,6 +1227,9 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
@@ -1111,6 +1247,8 @@
         <color theme="1"/>
       </font>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4"/>
         </top>
@@ -1147,6 +1285,8 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </top>
@@ -1167,14 +1307,17 @@
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top/>
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{0FF5EFF0-C93C-EF0B-77EF-5B6803E540F0}">
+  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1 1">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{AEC79F6F-7040-E5F9-19EC-6568B594D932}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1183,7 +1326,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10" xr9:uid="{4F6E9FFA-7936-D011-77EF-5B688C868406}">
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10" xr9:uid="{014177C5-4388-F2BA-19EC-6568D3ED7E54}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1195,17 +1338,17 @@
       <tableStyleElement type="pageFieldLabels" dxfId="8"/>
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1 1" pivot="0" count="10" xr9:uid="{F643597C-0760-CFE7-19EC-6568AE6C33C2}">
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="22"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="20"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="19"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="18"/>
+      <tableStyleElement type="pageFieldValues" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1468,21 +1611,22 @@
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="36.0480769230769" customWidth="1"/>
-    <col min="4" max="4" width="28.8365384615385" customWidth="1"/>
-    <col min="5" max="5" width="27.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="44.5480769230769" customWidth="1"/>
-    <col min="7" max="7" width="24.1923076923077" customWidth="1"/>
-    <col min="8" max="8" width="15.5384615384615" customWidth="1"/>
-    <col min="14" max="14" width="26.2692307692308" customWidth="1"/>
+    <col min="1" max="1" width="24.5192307692308" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7115384615385" customWidth="1"/>
+    <col min="4" max="4" width="26.2692307692308" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.0480769230769" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.8365384615385" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5576923076923" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5480769230769" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1923076923077" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5384615384615" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1536,149 +1680,149 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1687,648 +1831,646 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8"/>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="N18" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
